--- a/bioinfo-m2/Results/Organelles/Other/Total_chloroplast.xlsx
+++ b/bioinfo-m2/Results/Organelles/Other/Total_chloroplast.xlsx
@@ -32,7 +32,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
